--- a/output/fit_clients/fit_round_167.xlsx
+++ b/output/fit_clients/fit_round_167.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2384630671.682338</v>
+        <v>2274194491.839962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1016447589394828</v>
+        <v>0.08525741768071404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03656375932750421</v>
+        <v>0.02775699684098045</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1192315383.172806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1655310882.521254</v>
+        <v>2394583459.017407</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1399693051964096</v>
+        <v>0.1676269901682642</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03727278073279194</v>
+        <v>0.04484005548840785</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>827655427.9037272</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4057758056.346994</v>
+        <v>3397568036.333975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1022375226253273</v>
+        <v>0.1656626579595931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03201964291157872</v>
+        <v>0.03294739831984892</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2028879046.407208</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3782596391.926843</v>
+        <v>4031215188.695525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0726984542669321</v>
+        <v>0.08274040909666967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03180905401801724</v>
+        <v>0.04878976744190618</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1891298214.033311</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2141123315.518729</v>
+        <v>1838132871.394873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09574686684247587</v>
+        <v>0.1240209878219413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05632661555247186</v>
+        <v>0.04587282327897657</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1070561672.053528</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2816054635.287142</v>
+        <v>2363463670.480078</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07025180737277024</v>
+        <v>0.09632539926087515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03988692091865541</v>
+        <v>0.0411851826265596</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1408027300.184882</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3201625689.785392</v>
+        <v>3422578046.695933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.143382606158911</v>
+        <v>0.1503658213569257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02107732094655904</v>
+        <v>0.02403032535080686</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1600812922.981725</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1434879382.715922</v>
+        <v>1847381441.375797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1746128126120889</v>
+        <v>0.1904630743585269</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02380492756628247</v>
+        <v>0.02469313643137867</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>717439796.3341924</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3638029135.309892</v>
+        <v>4314962298.191852</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1384315576172579</v>
+        <v>0.1777401481911004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03445438121710986</v>
+        <v>0.03497124365796369</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1819014561.465222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3501151454.323908</v>
+        <v>3928035471.15248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1792057825858066</v>
+        <v>0.1468064008748135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03059402577324447</v>
+        <v>0.03362383550121492</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>69</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1750575704.994187</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3198048378.351885</v>
+        <v>2326584868.5131</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1884395499368927</v>
+        <v>0.1409924324958514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04912622968486866</v>
+        <v>0.03988094639807619</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>58</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1599024225.270364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3497681609.323493</v>
+        <v>4995977504.996438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06307503253007159</v>
+        <v>0.08283750025034975</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02375093625044852</v>
+        <v>0.02659819922284114</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>56</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1748840885.083752</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3313689696.011649</v>
+        <v>2541239547.16829</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129910214783247</v>
+        <v>0.1140867982861401</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03541764355255175</v>
+        <v>0.02780606008415099</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1656844859.697188</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1383504155.25797</v>
+        <v>1262671936.157783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09317951554274301</v>
+        <v>0.06902231361835835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03586588544671143</v>
+        <v>0.04905382431934525</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>691752136.6872202</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2120660279.268773</v>
+        <v>2131433680.695327</v>
       </c>
       <c r="F16" t="n">
-        <v>0.107451603973769</v>
+        <v>0.08062637729596077</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0427092470703908</v>
+        <v>0.03644104708988522</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1060330204.315257</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3966794977.998859</v>
+        <v>3744628922.555628</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1404784145668815</v>
+        <v>0.117171536534539</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03553698605076237</v>
+        <v>0.04295453231947793</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1983397525.200762</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3804594562.145205</v>
+        <v>3983312462.56256</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1311436102145686</v>
+        <v>0.171408894583978</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0276230086583584</v>
+        <v>0.0263926248397638</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>54</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1902297253.09966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>952422861.4744954</v>
+        <v>1019014913.717814</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524863394640047</v>
+        <v>0.1810333126115971</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02134854514053715</v>
+        <v>0.02677201424284608</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>476211448.3481653</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1738750772.568192</v>
+        <v>2663039318.998783</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1316378145612862</v>
+        <v>0.1169433592522077</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02099512294508284</v>
+        <v>0.0207879360058355</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" t="n">
-        <v>869375440.4236171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2308627289.234833</v>
+        <v>2025586997.593133</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08828517975980726</v>
+        <v>0.09364339487365667</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02898091608678535</v>
+        <v>0.03857671090746951</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1154313651.019134</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2991972151.219951</v>
+        <v>3872613363.093471</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005536147230898</v>
+        <v>0.1134350508100817</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04326954788794238</v>
+        <v>0.04674017549655823</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1495986137.594639</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1363892265.142915</v>
+        <v>1378758089.864824</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1675615274031831</v>
+        <v>0.1250696815653812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04356918508525014</v>
+        <v>0.04349391264717632</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>681946141.4162297</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3120130852.032915</v>
+        <v>4130437300.908652</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1092371256640373</v>
+        <v>0.09228085325203496</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03667559676242616</v>
+        <v>0.02303240365042068</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>49</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1560065453.143178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1316787056.122592</v>
+        <v>1304702374.150236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09487760534170245</v>
+        <v>0.1020914848438073</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02221924012015752</v>
+        <v>0.02459797320171589</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>658393519.131179</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1418192047.512224</v>
+        <v>1128695463.574107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1002408592992058</v>
+        <v>0.1139342406375382</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03038945098159512</v>
+        <v>0.02859858095805022</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>709096098.2172794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4519741664.475097</v>
+        <v>2999819371.432717</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1026872561279428</v>
+        <v>0.122336262239885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01906037502325907</v>
+        <v>0.02662530085750369</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2259870816.570704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3817878889.434237</v>
+        <v>3571398286.764781</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1153251979440015</v>
+        <v>0.1109171806742742</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03280653941964152</v>
+        <v>0.03744214427232786</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>53</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1908939526.90561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4591682103.608739</v>
+        <v>5530536960.461474</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1499196117139849</v>
+        <v>0.1058665811386734</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0431497169432951</v>
+        <v>0.03253253398290911</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2295841027.628429</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1505841176.427708</v>
+        <v>2284899381.758879</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1191810361451538</v>
+        <v>0.1028526122156252</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0348667400291297</v>
+        <v>0.03099480523344475</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>752920569.3643177</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1361491725.879556</v>
+        <v>1485323101.717892</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06944464940120389</v>
+        <v>0.07073143483934159</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04822745438979658</v>
+        <v>0.05179497151652589</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>680745776.3674111</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1809496491.532219</v>
+        <v>1275981406.515287</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049517229328622</v>
+        <v>0.08252053211386258</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03240480528647184</v>
+        <v>0.03183756662265999</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>904748378.1896739</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2677057950.121397</v>
+        <v>2568195660.240369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1410758734487741</v>
+        <v>0.1617567282488764</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04627468515056271</v>
+        <v>0.0471140310794485</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>50</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1338528998.17436</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1119401965.049692</v>
+        <v>1496499863.749178</v>
       </c>
       <c r="F34" t="n">
-        <v>0.115653667208923</v>
+        <v>0.1202215228331265</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02585220668631009</v>
+        <v>0.02752199973162565</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>559701000.7715914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>876133373.7090398</v>
+        <v>1258087126.39796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07672697258753987</v>
+        <v>0.1102724219609299</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02732476873686749</v>
+        <v>0.03600615828888756</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>438066732.5630053</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2247712517.273816</v>
+        <v>3146874808.944388</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1233912449037937</v>
+        <v>0.1311729186220241</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0275956857073102</v>
+        <v>0.02500663929881244</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>42</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1123856300.809876</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2298213043.983838</v>
+        <v>1783572150.052022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1003525655199542</v>
+        <v>0.1097672130944716</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02642060094301354</v>
+        <v>0.02924629991962839</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>47</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1149106590.25075</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1391968991.503477</v>
+        <v>1834608049.351985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1031273947929555</v>
+        <v>0.1134010528189676</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03647430909377338</v>
+        <v>0.03012129543007635</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>695984560.2347069</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2144139919.384492</v>
+        <v>1373447623.30161</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1651652415261354</v>
+        <v>0.1498347333115082</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03206042005144314</v>
+        <v>0.02566184784497412</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1072069932.319555</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581572192.33222</v>
+        <v>1776106340.726616</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1282473770591779</v>
+        <v>0.1431656484280019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0387838888803873</v>
+        <v>0.05937895911603124</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>790786041.9073526</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2677834749.024404</v>
+        <v>2379101190.141222</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1294835198079427</v>
+        <v>0.1332834512044742</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04023202190791717</v>
+        <v>0.04129082260885392</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>44</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1338917382.333319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4359928059.442532</v>
+        <v>3141264553.089854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1041523022663935</v>
+        <v>0.1158023416258756</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03266036391235865</v>
+        <v>0.03656450736551868</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2179964083.732747</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2614312550.248827</v>
+        <v>2593294286.581954</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1494557468911765</v>
+        <v>0.1949762508851596</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02314663508337232</v>
+        <v>0.01905506874338379</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>58</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1307156312.270555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1644036071.955882</v>
+        <v>1913864930.577147</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06886222766390908</v>
+        <v>0.07074728034672954</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03015180743358161</v>
+        <v>0.0263679154873031</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>822018071.2579738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1969281608.742447</v>
+        <v>2498205727.145909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1562514499119232</v>
+        <v>0.1299568748071768</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05358166901978723</v>
+        <v>0.04783290951586561</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>984640792.1000683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4474529385.573956</v>
+        <v>5584854505.366909</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1112172969465655</v>
+        <v>0.112545138483199</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03744076639735094</v>
+        <v>0.04428834543932451</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>59</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2237264689.456416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4158236366.668573</v>
+        <v>3858412386.841579</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1380559639070421</v>
+        <v>0.1952779019661556</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04251489489486698</v>
+        <v>0.05816984795439276</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2079118191.388389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4585278565.649128</v>
+        <v>4412322874.952435</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07240143234444048</v>
+        <v>0.06938616468790057</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03283832735108265</v>
+        <v>0.02553328148452746</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2292639283.155079</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1429294362.791767</v>
+        <v>1527812464.764195</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1347649068096564</v>
+        <v>0.1183443542966417</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03010349520085414</v>
+        <v>0.02796371592183587</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>714647224.3933008</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2616965944.342814</v>
+        <v>3460846856.719343</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1082557940950515</v>
+        <v>0.1471036118042274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04961715121580548</v>
+        <v>0.03731127844756379</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>57</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1308483059.240887</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1422722891.722383</v>
+        <v>1300686692.336569</v>
       </c>
       <c r="F51" t="n">
-        <v>0.13277192580102</v>
+        <v>0.1959088860647215</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03783473759085598</v>
+        <v>0.05366994140124565</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>711361461.2920393</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4842710826.536165</v>
+        <v>5048755210.059112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1320933252082423</v>
+        <v>0.09695193307745012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05140653737121222</v>
+        <v>0.04901524017204292</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2421355420.117853</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3448750314.415139</v>
+        <v>3121691176.375235</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1406388892186636</v>
+        <v>0.1414832023549394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03512952455308241</v>
+        <v>0.02175166733349541</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>47</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1724375158.657599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4696314766.844095</v>
+        <v>4847932446.505812</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1141743198392803</v>
+        <v>0.1146732844725571</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04032801749576863</v>
+        <v>0.04914590985919959</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2348157502.127821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4882343682.376435</v>
+        <v>4438707978.43448</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1774014110309741</v>
+        <v>0.1709923856265346</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02859409913181132</v>
+        <v>0.02303663332353411</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2441171854.993603</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1173081793.272954</v>
+        <v>1685813308.890381</v>
       </c>
       <c r="F56" t="n">
-        <v>0.101547156200018</v>
+        <v>0.1073963487141553</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04323621886778362</v>
+        <v>0.04268537458876751</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>586540987.3145334</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3947631148.24898</v>
+        <v>3042819174.420444</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1423632991614628</v>
+        <v>0.1392763368699161</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01932186449929375</v>
+        <v>0.02264389759396291</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>53</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1973815658.055951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1808760558.229424</v>
+        <v>1551041971.456116</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1366220747330576</v>
+        <v>0.1594282536782764</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03340877471607808</v>
+        <v>0.03446050148338498</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>904380282.0532948</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3785368799.460865</v>
+        <v>4865461329.527753</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08803965481829767</v>
+        <v>0.125633554074589</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03855509465487315</v>
+        <v>0.03744304135590749</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>46</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1892684386.004042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2999985525.516928</v>
+        <v>3070371849.256622</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1809739823707573</v>
+        <v>0.1915413408329169</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03120496960050234</v>
+        <v>0.02510707102988211</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1499992833.079357</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2523738779.680959</v>
+        <v>3203664553.802289</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1432745982686887</v>
+        <v>0.1770220956708372</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03265445575095672</v>
+        <v>0.02828020426080661</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1261869415.190977</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1981551799.24003</v>
+        <v>2023403021.406698</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1891048236053517</v>
+        <v>0.1254744863672839</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04654673562472592</v>
+        <v>0.0447959052951535</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>990775954.9172592</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4591884491.987139</v>
+        <v>4906912263.519486</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07078092136322849</v>
+        <v>0.08772181561771092</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04189478399278092</v>
+        <v>0.03732687422073921</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2295942281.936374</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4930176415.934958</v>
+        <v>3704593175.227449</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1595614258717102</v>
+        <v>0.1691261570126949</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02396826388959396</v>
+        <v>0.0290590593557224</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>52</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2465088309.212488</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5119444985.022911</v>
+        <v>5026094093.563224</v>
       </c>
       <c r="F65" t="n">
-        <v>0.16680811906144</v>
+        <v>0.1052083113332684</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02358445928416548</v>
+        <v>0.02139408990857506</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>60</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2559722444.270459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5489269995.269125</v>
+        <v>3995203081.152093</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534154987464039</v>
+        <v>0.1263306077181485</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0320723174287847</v>
+        <v>0.03889698655382277</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>48</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2744635050.953722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2644328390.832409</v>
+        <v>2708882355.431251</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06319217603928277</v>
+        <v>0.09211507878134642</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0470259359833713</v>
+        <v>0.04759806290450644</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1322164243.782961</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5275764786.499601</v>
+        <v>4752384227.332278</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1592661375647523</v>
+        <v>0.1421471928852211</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04279185999097868</v>
+        <v>0.03459208355846393</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2637882466.312546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1927718809.571158</v>
+        <v>1649152810.683167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1640537021117908</v>
+        <v>0.1191463068761834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0376220945652724</v>
+        <v>0.0536311649007217</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>963859400.3646488</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3439006677.493984</v>
+        <v>3600088559.077074</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0695418752209795</v>
+        <v>0.07988099591875823</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03460647545448371</v>
+        <v>0.03690210970276619</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>47</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1719503344.339523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4757649391.290021</v>
+        <v>5504043729.345469</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1843545820397307</v>
+        <v>0.1161790752360551</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02851287370942689</v>
+        <v>0.03010263558475719</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2378824783.255137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1906816053.14449</v>
+        <v>1891146814.749393</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08421347006715488</v>
+        <v>0.104465154138048</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03921665380618299</v>
+        <v>0.04232274354858676</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>953407987.8843119</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2481179069.182264</v>
+        <v>3142647574.619978</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08911995768325559</v>
+        <v>0.1074158660193047</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05197675303490703</v>
+        <v>0.04075008892600687</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>63</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1240589578.033232</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3385634967.415753</v>
+        <v>3712431324.792488</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1573481965911207</v>
+        <v>0.1318059175947353</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0304188798931656</v>
+        <v>0.02571224573299766</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1692817515.701329</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1669360745.850717</v>
+        <v>1996502092.186456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1537574321541776</v>
+        <v>0.1553177644572602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02492302651775493</v>
+        <v>0.03623748621038236</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>834680368.0769297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5097598869.006064</v>
+        <v>4469254699.04007</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1059630335193484</v>
+        <v>0.0973787350728578</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02580739163585307</v>
+        <v>0.02617506711978136</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2548799465.228676</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1616587891.352261</v>
+        <v>1651608128.001657</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1166124462608921</v>
+        <v>0.1719512219265178</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03147464006772898</v>
+        <v>0.01927122250941156</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>808293950.5483809</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4380992260.742483</v>
+        <v>3125586310.729384</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08421483368460657</v>
+        <v>0.1211569389275916</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03733123264355932</v>
+        <v>0.03874367955348594</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>58</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2190496068.822969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1228100982.375357</v>
+        <v>1418732860.935</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1366006987310787</v>
+        <v>0.1564382653219392</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0246241105913319</v>
+        <v>0.03548589418005979</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>614050477.8246031</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4476154232.616585</v>
+        <v>5088289620.719445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0833091147829029</v>
+        <v>0.1001568266399719</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03323520465532485</v>
+        <v>0.02522397352133953</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>35</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2238077139.424401</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4899670548.691062</v>
+        <v>3918855772.31496</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0990582155484853</v>
+        <v>0.1166421204265794</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02843670330485386</v>
+        <v>0.02599529723067495</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2449835270.937905</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3535693614.754978</v>
+        <v>4381357689.599382</v>
       </c>
       <c r="F82" t="n">
-        <v>0.183903013553451</v>
+        <v>0.2026854448738858</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02632977460282742</v>
+        <v>0.02829682772818855</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1767846872.986518</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2339735787.430385</v>
+        <v>1671985982.543227</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1583719385550209</v>
+        <v>0.1233977379361534</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03052661535140145</v>
+        <v>0.03878107545386788</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1169867921.318459</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1873839763.984345</v>
+        <v>2563995006.291995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09775563891896338</v>
+        <v>0.07689696182502574</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0488899203838574</v>
+        <v>0.04172372828223631</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>936919905.484268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2782036171.050197</v>
+        <v>2344485052.347732</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1383884653616833</v>
+        <v>0.1612533936991158</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03572371247953607</v>
+        <v>0.05273574946319274</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>63</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1391018121.576661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2291702292.267992</v>
+        <v>1755852175.942714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1397714112738852</v>
+        <v>0.1078626329446243</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0233251926610174</v>
+        <v>0.02300988128620132</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1145851214.300932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1433637820.487897</v>
+        <v>1285361736.18461</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1633538940237491</v>
+        <v>0.1419154705142358</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03771630813336146</v>
+        <v>0.02883213993702011</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>716819025.6907619</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3638281025.996519</v>
+        <v>3049276603.371293</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1091197529208438</v>
+        <v>0.1108269563420348</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0375570902358992</v>
+        <v>0.02576214523080801</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>66</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1819140606.477584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3169428804.183</v>
+        <v>2915272880.174545</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1401144721171571</v>
+        <v>0.1369931519851125</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02613829410634141</v>
+        <v>0.03417811390828112</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1584714427.751294</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1486455300.423084</v>
+        <v>1343810003.2388</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1360848879259475</v>
+        <v>0.08448485241106166</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04123395724507531</v>
+        <v>0.05484360029786594</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>743227626.4066392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1289288073.927251</v>
+        <v>1366720281.598937</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1840553259012908</v>
+        <v>0.125432552628971</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04995845675670174</v>
+        <v>0.05467350426898735</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>644644103.9482012</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2717443017.34642</v>
+        <v>1828030659.246758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08599849420285205</v>
+        <v>0.09432799260681483</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03284551978785931</v>
+        <v>0.03997779640257761</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1358721509.01328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4915710116.78017</v>
+        <v>3429586875.380056</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1275255902588807</v>
+        <v>0.1255573335365871</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03449860327833457</v>
+        <v>0.04699401856786181</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2457854999.783333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2339590130.525115</v>
+        <v>1634908475.93308</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1311103355983745</v>
+        <v>0.1652544405360081</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03974516426745565</v>
+        <v>0.04305929605345265</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1169795107.795011</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2529710195.926826</v>
+        <v>2590201924.909797</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09472995740677408</v>
+        <v>0.08959470081086446</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04494578139159081</v>
+        <v>0.03765903723715691</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1264855131.851941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2300507861.818316</v>
+        <v>1583296251.212457</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292201249947404</v>
+        <v>0.1418614859373901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04658994392715614</v>
+        <v>0.03768170266986968</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1150253885.763308</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5053964992.388015</v>
+        <v>5280866630.180933</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1722486997190149</v>
+        <v>0.1103430412994988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01968231524959124</v>
+        <v>0.02426184005140929</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>55</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2526982637.299735</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3593287932.83191</v>
+        <v>3265944490.927715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014334038004695</v>
+        <v>0.1157485140566821</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02894363864600891</v>
+        <v>0.02477604401162186</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>44</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1796643991.313735</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2498417800.049238</v>
+        <v>3422877921.299073</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1280769496038413</v>
+        <v>0.1459446143154613</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02951691573203838</v>
+        <v>0.03548855064884001</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1249208849.642259</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4600630081.728572</v>
+        <v>4315668885.086409</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1160030733103745</v>
+        <v>0.1244254314670432</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01871215197905112</v>
+        <v>0.02564951653890323</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2300315159.438246</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3219878442.65017</v>
+        <v>2609379061.137336</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1454908315703552</v>
+        <v>0.1855407603172245</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05097548952946897</v>
+        <v>0.03901259344786225</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>67</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1609939339.392494</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_167.xlsx
+++ b/output/fit_clients/fit_round_167.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2274194491.839962</v>
+        <v>2076956204.488261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08525741768071404</v>
+        <v>0.1005265766358752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02775699684098045</v>
+        <v>0.04007024691077716</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2394583459.017407</v>
+        <v>1764659376.575278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1676269901682642</v>
+        <v>0.1581830933993325</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04484005548840785</v>
+        <v>0.03524805098722265</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3397568036.333975</v>
+        <v>3766768451.092132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1656626579595931</v>
+        <v>0.1321010523927575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03294739831984892</v>
+        <v>0.03496325377875392</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4031215188.695525</v>
+        <v>3330795326.701651</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08274040909666967</v>
+        <v>0.1071245980279789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04878976744190618</v>
+        <v>0.04588076016948349</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1838132871.394873</v>
+        <v>2182349802.559189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1240209878219413</v>
+        <v>0.1454761680259925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04587282327897657</v>
+        <v>0.04801805070243096</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2363463670.480078</v>
+        <v>2999654193.851742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09632539926087515</v>
+        <v>0.06673291456192343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0411851826265596</v>
+        <v>0.04943488153955185</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3422578046.695933</v>
+        <v>3551214775.975755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1503658213569257</v>
+        <v>0.1332876555872715</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02403032535080686</v>
+        <v>0.02636291504260993</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1847381441.375797</v>
+        <v>1895570247.925872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1904630743585269</v>
+        <v>0.1379675286656528</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02469313643137867</v>
+        <v>0.03529308538637963</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4314962298.191852</v>
+        <v>3879210008.279635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1777401481911004</v>
+        <v>0.1492773153267555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03497124365796369</v>
+        <v>0.04992010471619161</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3928035471.15248</v>
+        <v>2767679030.083521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1468064008748135</v>
+        <v>0.1304920191267697</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03362383550121492</v>
+        <v>0.04584179283013709</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2326584868.5131</v>
+        <v>2931374759.384668</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1409924324958514</v>
+        <v>0.1967518470174295</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03988094639807619</v>
+        <v>0.04307985745215175</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4995977504.996438</v>
+        <v>3231356159.40053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08283750025034975</v>
+        <v>0.0794389093244781</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02659819922284114</v>
+        <v>0.02782191023739923</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2541239547.16829</v>
+        <v>3802094332.850615</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1140867982861401</v>
+        <v>0.1715631959061665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02780606008415099</v>
+        <v>0.03612392316085919</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1262671936.157783</v>
+        <v>1793917415.813251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06902231361835835</v>
+        <v>0.06845985309210881</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04905382431934525</v>
+        <v>0.04938461682180265</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131433680.695327</v>
+        <v>2307004774.30313</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08062637729596077</v>
+        <v>0.08715211531436672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03644104708988522</v>
+        <v>0.03301013896509834</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3744628922.555628</v>
+        <v>5109452080.019258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117171536534539</v>
+        <v>0.1070654023606569</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04295453231947793</v>
+        <v>0.03752182201861647</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3983312462.56256</v>
+        <v>3869633263.0615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.171408894583978</v>
+        <v>0.1661566356181092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0263926248397638</v>
+        <v>0.02347819172062976</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1019014913.717814</v>
+        <v>1068282102.947726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810333126115971</v>
+        <v>0.1394485145261028</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02677201424284608</v>
+        <v>0.02409131145489043</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2663039318.998783</v>
+        <v>2634304939.760992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1169433592522077</v>
+        <v>0.1261886419096492</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0207879360058355</v>
+        <v>0.02185111756287612</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2025586997.593133</v>
+        <v>1868965394.875846</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09364339487365667</v>
+        <v>0.08728264007500618</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03857671090746951</v>
+        <v>0.0437548503131959</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3872613363.093471</v>
+        <v>3260007349.607296</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1134350508100817</v>
+        <v>0.1073274630983587</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04674017549655823</v>
+        <v>0.04303348027452906</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1378758089.864824</v>
+        <v>1281062103.005173</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1250696815653812</v>
+        <v>0.131112029116884</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04349391264717632</v>
+        <v>0.0347493078613804</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4130437300.908652</v>
+        <v>4085927187.196741</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09228085325203496</v>
+        <v>0.09748739960385615</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02303240365042068</v>
+        <v>0.02494869633102866</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1304702374.150236</v>
+        <v>1389273407.189474</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1020914848438073</v>
+        <v>0.08865222219978557</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02459797320171589</v>
+        <v>0.02319240993884704</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1128695463.574107</v>
+        <v>1403314381.901627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1139342406375382</v>
+        <v>0.08754407321789848</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02859858095805022</v>
+        <v>0.03140452101226792</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2999819371.432717</v>
+        <v>3778751057.61108</v>
       </c>
       <c r="F27" t="n">
-        <v>0.122336262239885</v>
+        <v>0.1127746179057856</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02662530085750369</v>
+        <v>0.0201489362982985</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3571398286.764781</v>
+        <v>2378645630.069737</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1109171806742742</v>
+        <v>0.1124133593198411</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03744214427232786</v>
+        <v>0.04673005787930764</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5530536960.461474</v>
+        <v>5629583384.056668</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1058665811386734</v>
+        <v>0.1120118121739687</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03253253398290911</v>
+        <v>0.03740407479553483</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2284899381.758879</v>
+        <v>1602024154.387129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1028526122156252</v>
+        <v>0.08772602976145169</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03099480523344475</v>
+        <v>0.04016774609458629</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1485323101.717892</v>
+        <v>1139896449.024753</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07073143483934159</v>
+        <v>0.07942834949947473</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05179497151652589</v>
+        <v>0.04957596735550428</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1275981406.515287</v>
+        <v>1354075015.073677</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08252053211386258</v>
+        <v>0.07815313112075181</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03183756662265999</v>
+        <v>0.02564265563225768</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2568195660.240369</v>
+        <v>2403688527.143445</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1617567282488764</v>
+        <v>0.1651178866955674</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0471140310794485</v>
+        <v>0.03728198883325596</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1496499863.749178</v>
+        <v>974132658.5513278</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1202215228331265</v>
+        <v>0.1106767394928641</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02752199973162565</v>
+        <v>0.01737125869036979</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1258087126.39796</v>
+        <v>1271393756.381347</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102724219609299</v>
+        <v>0.07264879199998453</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03600615828888756</v>
+        <v>0.02772536120605058</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3146874808.944388</v>
+        <v>2813977144.218918</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1311729186220241</v>
+        <v>0.1273538949745774</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02500663929881244</v>
+        <v>0.02413022030542122</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1783572150.052022</v>
+        <v>1996579886.710697</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097672130944716</v>
+        <v>0.09607975629165402</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02924629991962839</v>
+        <v>0.03610543148833824</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1834608049.351985</v>
+        <v>1432467571.171647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1134010528189676</v>
+        <v>0.1178962959896132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03012129543007635</v>
+        <v>0.02962610079124257</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1373447623.30161</v>
+        <v>2206664338.17627</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1498347333115082</v>
+        <v>0.1589375971068834</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02566184784497412</v>
+        <v>0.02382643503161114</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1776106340.726616</v>
+        <v>1575814677.18414</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1431656484280019</v>
+        <v>0.1074892596998801</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05937895911603124</v>
+        <v>0.04245052030038526</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2379101190.141222</v>
+        <v>2548888894.919596</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1332834512044742</v>
+        <v>0.1552686126694388</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04129082260885392</v>
+        <v>0.03913452247850256</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3141264553.089854</v>
+        <v>4123384997.080603</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1158023416258756</v>
+        <v>0.08656805181040049</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03656450736551868</v>
+        <v>0.03761786581768519</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2593294286.581954</v>
+        <v>2754009181.173255</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1949762508851596</v>
+        <v>0.1614413877969665</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01905506874338379</v>
+        <v>0.02015981225098686</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1913864930.577147</v>
+        <v>2058639344.273574</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07074728034672954</v>
+        <v>0.06291671248443644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0263679154873031</v>
+        <v>0.02492619386237138</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2498205727.145909</v>
+        <v>1756974085.191809</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1299568748071768</v>
+        <v>0.1231906763120783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04783290951586561</v>
+        <v>0.0449813837237756</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5584854505.366909</v>
+        <v>4792288592.595201</v>
       </c>
       <c r="F46" t="n">
-        <v>0.112545138483199</v>
+        <v>0.170711650711176</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04428834543932451</v>
+        <v>0.04663973464606341</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3858412386.841579</v>
+        <v>4925667889.246993</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1952779019661556</v>
+        <v>0.1394443968695861</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05816984795439276</v>
+        <v>0.04622443525812135</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4412322874.952435</v>
+        <v>2951162575.148686</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06938616468790057</v>
+        <v>0.06658033433129981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02553328148452746</v>
+        <v>0.02841089194089565</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1527812464.764195</v>
+        <v>1908230988.852737</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1183443542966417</v>
+        <v>0.1965900192945599</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02796371592183587</v>
+        <v>0.03501892022306265</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3460846856.719343</v>
+        <v>2825918801.879333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1471036118042274</v>
+        <v>0.1759343897664601</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03731127844756379</v>
+        <v>0.03286333483411837</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1300686692.336569</v>
+        <v>1066852065.196776</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1959088860647215</v>
+        <v>0.1392983230049761</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05366994140124565</v>
+        <v>0.03875747421398808</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5048755210.059112</v>
+        <v>3637353265.354675</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09695193307745012</v>
+        <v>0.1306275467414185</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04901524017204292</v>
+        <v>0.05088758689436419</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3121691176.375235</v>
+        <v>3749482717.380367</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1414832023549394</v>
+        <v>0.1946403495144002</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02175166733349541</v>
+        <v>0.03338367132946198</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4847932446.505812</v>
+        <v>4651692650.250387</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1146732844725571</v>
+        <v>0.1039034910933984</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04914590985919959</v>
+        <v>0.03399637399597712</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4438707978.43448</v>
+        <v>3740112873.879402</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1709923856265346</v>
+        <v>0.1557757650515095</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02303663332353411</v>
+        <v>0.02800860839733637</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1685813308.890381</v>
+        <v>1814536754.945831</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1073963487141553</v>
+        <v>0.1572755525203327</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04268537458876751</v>
+        <v>0.04650979962919961</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3042819174.420444</v>
+        <v>3887248303.353509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1392763368699161</v>
+        <v>0.1465930998713031</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02264389759396291</v>
+        <v>0.02293700974527346</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1551041971.456116</v>
+        <v>1173410987.873097</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1594282536782764</v>
+        <v>0.1624289275640675</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03446050148338498</v>
+        <v>0.02753377231687091</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4865461329.527753</v>
+        <v>3589083699.191795</v>
       </c>
       <c r="F59" t="n">
-        <v>0.125633554074589</v>
+        <v>0.1282812298961021</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03744304135590749</v>
+        <v>0.04817039087204676</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3070371849.256622</v>
+        <v>3366445268.164951</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1915413408329169</v>
+        <v>0.1339959405614899</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02510707102988211</v>
+        <v>0.02611697915189313</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3203664553.802289</v>
+        <v>2070236898.882212</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1770220956708372</v>
+        <v>0.1095232445693802</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02828020426080661</v>
+        <v>0.02805494131812317</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2023403021.406698</v>
+        <v>1779656602.668485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1254744863672839</v>
+        <v>0.1915778159719089</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0447959052951535</v>
+        <v>0.03462305731314753</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4906912263.519486</v>
+        <v>5045430701.882587</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08772181561771092</v>
+        <v>0.0778901706145997</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03732687422073921</v>
+        <v>0.04382793605906475</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3704593175.227449</v>
+        <v>5277476377.518119</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1691261570126949</v>
+        <v>0.1613085455973425</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0290590593557224</v>
+        <v>0.02958298291826801</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5026094093.563224</v>
+        <v>5660180990.742181</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1052083113332684</v>
+        <v>0.1497632092538043</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02139408990857506</v>
+        <v>0.03041848234952315</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3995203081.152093</v>
+        <v>4463562017.912253</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1263306077181485</v>
+        <v>0.1480868316829786</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03889698655382277</v>
+        <v>0.03319929480653596</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2708882355.431251</v>
+        <v>2784827648.529184</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09211507878134642</v>
+        <v>0.06293064276072967</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04759806290450644</v>
+        <v>0.03641832843558418</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4752384227.332278</v>
+        <v>5773289281.305411</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1421471928852211</v>
+        <v>0.1314261944971831</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03459208355846393</v>
+        <v>0.03843778903808791</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1649152810.683167</v>
+        <v>2041588576.556008</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1191463068761834</v>
+        <v>0.1169266814781285</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0536311649007217</v>
+        <v>0.051969140261157</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3600088559.077074</v>
+        <v>2907007507.647626</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07988099591875823</v>
+        <v>0.1029497762735448</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03690210970276619</v>
+        <v>0.03731479052122155</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5504043729.345469</v>
+        <v>3927983269.306351</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1161790752360551</v>
+        <v>0.1594787882457525</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03010263558475719</v>
+        <v>0.02341638293969895</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1891146814.749393</v>
+        <v>1669461615.237325</v>
       </c>
       <c r="F72" t="n">
-        <v>0.104465154138048</v>
+        <v>0.1081948490414383</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04232274354858676</v>
+        <v>0.0364456459157779</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3142647574.619978</v>
+        <v>2170830151.211072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1074158660193047</v>
+        <v>0.09462013121553582</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04075008892600687</v>
+        <v>0.04283157580369229</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3712431324.792488</v>
+        <v>2700525142.323593</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1318059175947353</v>
+        <v>0.1223811443585699</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02571224573299766</v>
+        <v>0.02213064207514712</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1996502092.186456</v>
+        <v>1509794886.475822</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553177644572602</v>
+        <v>0.1415978367332372</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03623748621038236</v>
+        <v>0.02953473510444609</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4469254699.04007</v>
+        <v>3757666274.852412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0973787350728578</v>
+        <v>0.1228107719109379</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02617506711978136</v>
+        <v>0.02278154526732033</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1651608128.001657</v>
+        <v>2189828853.264568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1719512219265178</v>
+        <v>0.1229625424375432</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01927122250941156</v>
+        <v>0.02731816518644348</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3125586310.729384</v>
+        <v>4608932163.6308</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1211569389275916</v>
+        <v>0.1289303312816891</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03874367955348594</v>
+        <v>0.05565202403396738</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1418732860.935</v>
+        <v>1792437122.254777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1564382653219392</v>
+        <v>0.1175711444392043</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03548589418005979</v>
+        <v>0.03121675222818858</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5088289620.719445</v>
+        <v>4527995986.232358</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1001568266399719</v>
+        <v>0.1042289914896747</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02522397352133953</v>
+        <v>0.03687616236061895</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3918855772.31496</v>
+        <v>4672489232.631487</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1166421204265794</v>
+        <v>0.1293581506936687</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02599529723067495</v>
+        <v>0.03016012735622891</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4381357689.599382</v>
+        <v>4915642877.49338</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2026854448738858</v>
+        <v>0.1900003771030279</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02829682772818855</v>
+        <v>0.01955710124931628</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1671985982.543227</v>
+        <v>2202528568.313208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1233977379361534</v>
+        <v>0.09725258170323066</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03878107545386788</v>
+        <v>0.03437439780488436</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2563995006.291995</v>
+        <v>2081679335.54057</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07689696182502574</v>
+        <v>0.09047732177636275</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04172372828223631</v>
+        <v>0.03518911293590071</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2344485052.347732</v>
+        <v>2756699321.608872</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1612533936991158</v>
+        <v>0.120080557431331</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05273574946319274</v>
+        <v>0.03916210379454522</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1755852175.942714</v>
+        <v>2307127941.458278</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1078626329446243</v>
+        <v>0.1475233908646281</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02300988128620132</v>
+        <v>0.01921416859674352</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1285361736.18461</v>
+        <v>917128317.9506973</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1419154705142358</v>
+        <v>0.1667813969581926</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02883213993702011</v>
+        <v>0.03273075360963209</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3049276603.371293</v>
+        <v>3513388172.900224</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1108269563420348</v>
+        <v>0.1482030694388782</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02576214523080801</v>
+        <v>0.02590437753545274</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2915272880.174545</v>
+        <v>2383346417.030145</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1369931519851125</v>
+        <v>0.1195321272542112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03417811390828112</v>
+        <v>0.02517929509703478</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1343810003.2388</v>
+        <v>1527041502.330352</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08448485241106166</v>
+        <v>0.1323279996321544</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05484360029786594</v>
+        <v>0.04005263403538972</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1366720281.598937</v>
+        <v>1893570571.024752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.125432552628971</v>
+        <v>0.1661823588033533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05467350426898735</v>
+        <v>0.05999861195252072</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1828030659.246758</v>
+        <v>1804493731.628292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09432799260681483</v>
+        <v>0.07863641738190946</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03997779640257761</v>
+        <v>0.04090395930868409</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3429586875.380056</v>
+        <v>4800722033.898044</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1255573335365871</v>
+        <v>0.1398161897983696</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04699401856786181</v>
+        <v>0.03871081183629951</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1634908475.93308</v>
+        <v>2486326612.921474</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652544405360081</v>
+        <v>0.1606968731361991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04305929605345265</v>
+        <v>0.04124695201505246</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2590201924.909797</v>
+        <v>2047688302.545382</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08959470081086446</v>
+        <v>0.1229398756051054</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03765903723715691</v>
+        <v>0.04003794968492783</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1583296251.212457</v>
+        <v>1551902951.866535</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1418614859373901</v>
+        <v>0.1336907880688725</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03768170266986968</v>
+        <v>0.02917374126707935</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5280866630.180933</v>
+        <v>3923991444.758493</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1103430412994988</v>
+        <v>0.1535307384007634</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02426184005140929</v>
+        <v>0.02136615404427926</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3265944490.927715</v>
+        <v>3491443828.778003</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1157485140566821</v>
+        <v>0.07974117540497572</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02477604401162186</v>
+        <v>0.02113817125231516</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3422877921.299073</v>
+        <v>3064011416.462348</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1459446143154613</v>
+        <v>0.09598673474263485</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03548855064884001</v>
+        <v>0.02150311233642614</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4315668885.086409</v>
+        <v>3424404341.659898</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1244254314670432</v>
+        <v>0.1529413249961464</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02564951653890323</v>
+        <v>0.02257481730238576</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2609379061.137336</v>
+        <v>2765208642.645695</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1855407603172245</v>
+        <v>0.1590949408183699</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03901259344786225</v>
+        <v>0.05694549011207276</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_167.xlsx
+++ b/output/fit_clients/fit_round_167.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2076956204.488261</v>
+        <v>1544510141.335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1005265766358752</v>
+        <v>0.102995409094343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04007024691077716</v>
+        <v>0.04264540676490532</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1764659376.575278</v>
+        <v>1704268514.494002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1581830933993325</v>
+        <v>0.137779189861709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03524805098722265</v>
+        <v>0.03088159563277157</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3766768451.092132</v>
+        <v>3847583986.245529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1321010523927575</v>
+        <v>0.1028594703857791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03496325377875392</v>
+        <v>0.03789811834459368</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>167</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3330795326.701651</v>
+        <v>3495775272.130136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1071245980279789</v>
+        <v>0.09112050670721435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04588076016948349</v>
+        <v>0.04211949101797044</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>167</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2182349802.559189</v>
+        <v>2255524649.448164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1454761680259925</v>
+        <v>0.1065069121274464</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04801805070243096</v>
+        <v>0.03920380950663614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2999654193.851742</v>
+        <v>2846437477.932526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06673291456192343</v>
+        <v>0.07803363451842237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04943488153955185</v>
+        <v>0.03294934909662262</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3551214775.975755</v>
+        <v>2473670650.369349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1332876555872715</v>
+        <v>0.20400294876616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02636291504260993</v>
+        <v>0.02614956051848479</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>165</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1895570247.925872</v>
+        <v>1918856178.660645</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1379675286656528</v>
+        <v>0.1379174280547712</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03529308538637963</v>
+        <v>0.02947527508057408</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3879210008.279635</v>
+        <v>5832456663.698057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1492773153267555</v>
+        <v>0.2055326689328365</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04992010471619161</v>
+        <v>0.04896646853835784</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>154</v>
+      </c>
+      <c r="J10" t="n">
+        <v>167</v>
+      </c>
+      <c r="K10" t="n">
+        <v>144.8331667940186</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2767679030.083521</v>
+        <v>3029127139.283723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1304920191267697</v>
+        <v>0.1552170264759258</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04584179283013709</v>
+        <v>0.0419799037246459</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>69</v>
+      </c>
+      <c r="J11" t="n">
+        <v>166</v>
+      </c>
+      <c r="K11" t="n">
+        <v>93.01978480483852</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2931374759.384668</v>
+        <v>2113644678.717477</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1967518470174295</v>
+        <v>0.1365475714709008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04307985745215175</v>
+        <v>0.04350403145179192</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3231356159.40053</v>
+        <v>4840482802.062416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0794389093244781</v>
+        <v>0.06750689466015349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02782191023739923</v>
+        <v>0.02905877855499976</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>82</v>
+      </c>
+      <c r="J13" t="n">
+        <v>166</v>
+      </c>
+      <c r="K13" t="n">
+        <v>130.4835944437295</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3802094332.850615</v>
+        <v>2728216343.889838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1715631959061665</v>
+        <v>0.1710506966914338</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03612392316085919</v>
+        <v>0.02743284809975547</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>166</v>
+      </c>
+      <c r="K14" t="n">
+        <v>69.64080117918287</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1793917415.813251</v>
+        <v>1747767887.426187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06845985309210881</v>
+        <v>0.06782805007008193</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04938461682180265</v>
+        <v>0.04471330366117526</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2307004774.30313</v>
+        <v>1907569868.428512</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08715211531436672</v>
+        <v>0.09227995845116545</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03301013896509834</v>
+        <v>0.05145736327440999</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5109452080.019258</v>
+        <v>3469883581.187397</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1070654023606569</v>
+        <v>0.1523230020866388</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03752182201861647</v>
+        <v>0.03913657590002664</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>164</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3869633263.0615</v>
+        <v>3290039606.911946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1661566356181092</v>
+        <v>0.1633127859474136</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02347819172062976</v>
+        <v>0.03345871603598031</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>166</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100.2257988117446</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1068282102.947726</v>
+        <v>912074059.9215338</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1394485145261028</v>
+        <v>0.1632710611139792</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02409131145489043</v>
+        <v>0.02345222853010945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2634304939.760992</v>
+        <v>2163409820.135805</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1261886419096492</v>
+        <v>0.1074218549942349</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02185111756287612</v>
+        <v>0.02023030613044036</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1868965394.875846</v>
+        <v>1985188886.028325</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08728264007500618</v>
+        <v>0.0940614795478325</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0437548503131959</v>
+        <v>0.03283229878285465</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3260007349.607296</v>
+        <v>3392276652.684328</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1073274630983587</v>
+        <v>0.1260218769332106</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04303348027452906</v>
+        <v>0.04303289855905552</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98.38876693947101</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1281062103.005173</v>
+        <v>1046584365.151389</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131112029116884</v>
+        <v>0.1662117944245836</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0347493078613804</v>
+        <v>0.04331987357927086</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4085927187.196741</v>
+        <v>3340082066.606606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09748739960385615</v>
+        <v>0.1301705173842117</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02494869633102866</v>
+        <v>0.03266685106246915</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="n">
+        <v>164</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1389273407.189474</v>
+        <v>1202175467.579837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08865222219978557</v>
+        <v>0.1147887535268505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02319240993884704</v>
+        <v>0.0267890174829899</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1403314381.901627</v>
+        <v>1067482970.487653</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08754407321789848</v>
+        <v>0.08584008527845423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03140452101226792</v>
+        <v>0.03752118467230652</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3778751057.61108</v>
+        <v>4606142947.032351</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127746179057856</v>
+        <v>0.1323201370681331</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0201489362982985</v>
+        <v>0.02489932221114047</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>66</v>
+      </c>
+      <c r="J27" t="n">
+        <v>167</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2378645630.069737</v>
+        <v>3796444285.538313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1124133593198411</v>
+        <v>0.111764246162194</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04673005787930764</v>
+        <v>0.0350913186386753</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>167</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5629583384.056668</v>
+        <v>4826199335.183136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1120118121739687</v>
+        <v>0.1001731848503587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03740407479553483</v>
+        <v>0.03641840001146959</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>156</v>
+      </c>
+      <c r="J29" t="n">
+        <v>167</v>
+      </c>
+      <c r="K29" t="n">
+        <v>153.1430119287298</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1602024154.387129</v>
+        <v>1840605179.249388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08772602976145169</v>
+        <v>0.1023738306575141</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04016774609458629</v>
+        <v>0.03322698912569771</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1139896449.024753</v>
+        <v>1210277235.042584</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07942834949947473</v>
+        <v>0.109505079421751</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04957596735550428</v>
+        <v>0.04009943350005918</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1354075015.073677</v>
+        <v>1341077819.352185</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07815313112075181</v>
+        <v>0.103556687874364</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02564265563225768</v>
+        <v>0.02468210485427661</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2403688527.143445</v>
+        <v>2528484023.905075</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1651178866955674</v>
+        <v>0.2042933722413188</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03728198883325596</v>
+        <v>0.05366499829034378</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>974132658.5513278</v>
+        <v>1521710344.840135</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1106767394928641</v>
+        <v>0.09059817124842982</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01737125869036979</v>
+        <v>0.02315437769677913</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1271393756.381347</v>
+        <v>1185686758.21865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07264879199998453</v>
+        <v>0.1085691667727761</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02772536120605058</v>
+        <v>0.04144039540750011</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2813977144.218918</v>
+        <v>3071246291.169335</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1273538949745774</v>
+        <v>0.1559445149280098</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02413022030542122</v>
+        <v>0.02855960100446523</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1996579886.710697</v>
+        <v>2878255908.911582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09607975629165402</v>
+        <v>0.1063236015074934</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03610543148833824</v>
+        <v>0.04113405559935751</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1432467571.171647</v>
+        <v>1791155595.68819</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1178962959896132</v>
+        <v>0.08799528920710821</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02962610079124257</v>
+        <v>0.03516463770798166</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2206664338.17627</v>
+        <v>1757515371.699671</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1589375971068834</v>
+        <v>0.157308231072407</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02382643503161114</v>
+        <v>0.02357500179559275</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1575814677.18414</v>
+        <v>1641496434.876629</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1074892596998801</v>
+        <v>0.1247457932274646</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04245052030038526</v>
+        <v>0.05614017328243213</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2548888894.919596</v>
+        <v>2634354281.408285</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1552686126694388</v>
+        <v>0.1196158848674519</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03913452247850256</v>
+        <v>0.04426428183544126</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4123384997.080603</v>
+        <v>2981466828.092994</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08656805181040049</v>
+        <v>0.1229358868007094</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03761786581768519</v>
+        <v>0.03897034282298526</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="n">
+        <v>166</v>
+      </c>
+      <c r="K42" t="n">
+        <v>85.68874298980894</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2754009181.173255</v>
+        <v>3009857822.315524</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1614413877969665</v>
+        <v>0.1741499166633727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015981225098686</v>
+        <v>0.01878406635004028</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2058639344.273574</v>
+        <v>1905805784.135994</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06291671248443644</v>
+        <v>0.09938409457592438</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02492619386237138</v>
+        <v>0.02631226907339064</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1756974085.191809</v>
+        <v>2286838967.216938</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1231906763120783</v>
+        <v>0.1190513969758589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0449813837237756</v>
+        <v>0.03979701683888882</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4792288592.595201</v>
+        <v>4842075246.205717</v>
       </c>
       <c r="F46" t="n">
-        <v>0.170711650711176</v>
+        <v>0.1277516887861659</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04663973464606341</v>
+        <v>0.04935584707013534</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>94</v>
+      </c>
+      <c r="J46" t="n">
+        <v>167</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4925667889.246993</v>
+        <v>3465422429.9255</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1394443968695861</v>
+        <v>0.1556010603150473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04622443525812135</v>
+        <v>0.04247249572114013</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>74</v>
+      </c>
+      <c r="J47" t="n">
+        <v>165</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2951162575.148686</v>
+        <v>4006092986.531517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06658033433129981</v>
+        <v>0.07370155950849659</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02841089194089565</v>
+        <v>0.02737098801804316</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>75</v>
+      </c>
+      <c r="J48" t="n">
+        <v>167</v>
+      </c>
+      <c r="K48" t="n">
+        <v>135.0007656723635</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1908230988.852737</v>
+        <v>1642771895.679363</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1965900192945599</v>
+        <v>0.1678172050198327</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03501892022306265</v>
+        <v>0.04174255452567001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2825918801.879333</v>
+        <v>2613844126.742769</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1759343897664601</v>
+        <v>0.177101374684998</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03286333483411837</v>
+        <v>0.03369042460652771</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1066852065.196776</v>
+        <v>1275641658.836548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1392983230049761</v>
+        <v>0.1852676980621953</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03875747421398808</v>
+        <v>0.04934091976751333</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3637353265.354675</v>
+        <v>3643527519.246707</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1306275467414185</v>
+        <v>0.09084297652867807</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05088758689436419</v>
+        <v>0.05372878515790614</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>119</v>
+      </c>
+      <c r="J52" t="n">
+        <v>166</v>
+      </c>
+      <c r="K52" t="n">
+        <v>125.9300678062051</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3749482717.380367</v>
+        <v>2335801289.618234</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1946403495144002</v>
+        <v>0.1652426973813872</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03338367132946198</v>
+        <v>0.03263968937920358</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4651692650.250387</v>
+        <v>4464204680.600902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1039034910933984</v>
+        <v>0.1426622806473806</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03399637399597712</v>
+        <v>0.04706848003042591</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>81</v>
+      </c>
+      <c r="J54" t="n">
+        <v>167</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3740112873.879402</v>
+        <v>4140280425.152992</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1557757650515095</v>
+        <v>0.1720069547366197</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02800860839733637</v>
+        <v>0.02906615114198217</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>76</v>
+      </c>
+      <c r="J55" t="n">
+        <v>166</v>
+      </c>
+      <c r="K55" t="n">
+        <v>126.2191463495184</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1814536754.945831</v>
+        <v>1653900542.038612</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1572755525203327</v>
+        <v>0.1240784451650796</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04650979962919961</v>
+        <v>0.04074075842131553</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3887248303.353509</v>
+        <v>4080777803.680051</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1465930998713031</v>
+        <v>0.178517940732091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02293700974527346</v>
+        <v>0.02245743163074633</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>68</v>
+      </c>
+      <c r="J57" t="n">
+        <v>166</v>
+      </c>
+      <c r="K57" t="n">
+        <v>129.0731721062702</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1173410987.873097</v>
+        <v>1626739610.774243</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1624289275640675</v>
+        <v>0.1776470240353544</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02753377231687091</v>
+        <v>0.03401043986561663</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3589083699.191795</v>
+        <v>4834505393.95331</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1282812298961021</v>
+        <v>0.07871475380289604</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04817039087204676</v>
+        <v>0.04070014186238384</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>80</v>
+      </c>
+      <c r="J59" t="n">
+        <v>167</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3366445268.164951</v>
+        <v>2622123878.341525</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1339959405614899</v>
+        <v>0.192075694152372</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02611697915189313</v>
+        <v>0.02551984931728831</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2070236898.882212</v>
+        <v>2371334223.539733</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1095232445693802</v>
+        <v>0.1528906186766867</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02805494131812317</v>
+        <v>0.02364293113134752</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1779656602.668485</v>
+        <v>1824340924.272614</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1915778159719089</v>
+        <v>0.1259317214957015</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03462305731314753</v>
+        <v>0.03867143463035684</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5045430701.882587</v>
+        <v>3789527376.820745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0778901706145997</v>
+        <v>0.06727385351228421</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04382793605906475</v>
+        <v>0.04337978323512919</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>82</v>
+      </c>
+      <c r="J63" t="n">
+        <v>166</v>
+      </c>
+      <c r="K63" t="n">
+        <v>121.7020259201226</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5277476377.518119</v>
+        <v>3903121275.747418</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1613085455973425</v>
+        <v>0.1906416949850737</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02958298291826801</v>
+        <v>0.02604547929830296</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>82</v>
+      </c>
+      <c r="J64" t="n">
+        <v>167</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5660180990.742181</v>
+        <v>5236948422.292423</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1497632092538043</v>
+        <v>0.1745079397326238</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03041848234952315</v>
+        <v>0.02037005525646165</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>138</v>
+      </c>
+      <c r="J65" t="n">
+        <v>167</v>
+      </c>
+      <c r="K65" t="n">
+        <v>134.1314220060792</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4463562017.912253</v>
+        <v>5201799885.506423</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1480868316829786</v>
+        <v>0.1592853570806191</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03319929480653596</v>
+        <v>0.03998781999064985</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>82</v>
+      </c>
+      <c r="J66" t="n">
+        <v>167</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2784827648.529184</v>
+        <v>2663361371.870545</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06293064276072967</v>
+        <v>0.08076422222308116</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03641832843558418</v>
+        <v>0.04428742621276817</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5773289281.305411</v>
+        <v>3737672237.313168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1314261944971831</v>
+        <v>0.1528118031185861</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03843778903808791</v>
+        <v>0.05049420983461538</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>84</v>
+      </c>
+      <c r="J68" t="n">
+        <v>166</v>
+      </c>
+      <c r="K68" t="n">
+        <v>125.5077677752178</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2041588576.556008</v>
+        <v>2393914719.636648</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1169266814781285</v>
+        <v>0.1153868611654317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.051969140261157</v>
+        <v>0.03686637725925894</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2907007507.647626</v>
+        <v>3481830302.281538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1029497762735448</v>
+        <v>0.06863078054772376</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03731479052122155</v>
+        <v>0.04165114077964129</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3927983269.306351</v>
+        <v>5380241356.381716</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1594787882457525</v>
+        <v>0.1443915785230246</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02341638293969895</v>
+        <v>0.02389209352247294</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>131</v>
+      </c>
+      <c r="J71" t="n">
+        <v>167</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1669461615.237325</v>
+        <v>1482883289.195061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1081948490414383</v>
+        <v>0.07023959903256652</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0364456459157779</v>
+        <v>0.03275994496546387</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2170830151.211072</v>
+        <v>2547091421.778232</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09462013121553582</v>
+        <v>0.08668298356294092</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04283157580369229</v>
+        <v>0.04388601237175744</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2700525142.323593</v>
+        <v>3449330823.804424</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223811443585699</v>
+        <v>0.1407907632901432</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02213064207514712</v>
+        <v>0.03215569402914569</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>164</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1509794886.475822</v>
+        <v>1761517836.956764</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1415978367332372</v>
+        <v>0.1559094558095823</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02953473510444609</v>
+        <v>0.0253403956921269</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3757666274.852412</v>
+        <v>5213284251.919034</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1228107719109379</v>
+        <v>0.08163240182196227</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02278154526732033</v>
+        <v>0.02752572063215034</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>76</v>
+      </c>
+      <c r="J76" t="n">
+        <v>167</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2189828853.264568</v>
+        <v>2060477742.330043</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1229625424375432</v>
+        <v>0.1302747215865194</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02731816518644348</v>
+        <v>0.02447771268809235</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4608932163.6308</v>
+        <v>3189983050.784496</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1289303312816891</v>
+        <v>0.0914496312178216</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05565202403396738</v>
+        <v>0.04981951185947334</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>84</v>
+      </c>
+      <c r="J78" t="n">
+        <v>165</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1792437122.254777</v>
+        <v>1725192723.947695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1175711444392043</v>
+        <v>0.1377771853957025</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03121675222818858</v>
+        <v>0.03354797719190336</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4527995986.232358</v>
+        <v>4505788136.389472</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042289914896747</v>
+        <v>0.07702701488981439</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03687616236061895</v>
+        <v>0.02962350149715883</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>81</v>
+      </c>
+      <c r="J80" t="n">
+        <v>167</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4672489232.631487</v>
+        <v>3295548640.271878</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1293581506936687</v>
+        <v>0.1322522652908479</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03016012735622891</v>
+        <v>0.02775587532809866</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>77</v>
+      </c>
+      <c r="J81" t="n">
+        <v>166</v>
+      </c>
+      <c r="K81" t="n">
+        <v>90.02164301193611</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4915642877.49338</v>
+        <v>5356452035.197731</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1900003771030279</v>
+        <v>0.1579639685095813</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01955710124931628</v>
+        <v>0.02680738458857843</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>122</v>
+      </c>
+      <c r="J82" t="n">
+        <v>167</v>
+      </c>
+      <c r="K82" t="n">
+        <v>141.2867905093658</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2202528568.313208</v>
+        <v>2440300693.507943</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09725258170323066</v>
+        <v>0.1534019466298133</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03437439780488436</v>
+        <v>0.04372854740905362</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2081679335.54057</v>
+        <v>2078547872.275492</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09047732177636275</v>
+        <v>0.1135662736121839</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03518911293590071</v>
+        <v>0.04187802505181737</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2756699321.608872</v>
+        <v>2426262231.557698</v>
       </c>
       <c r="F85" t="n">
-        <v>0.120080557431331</v>
+        <v>0.1714269143008942</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03916210379454522</v>
+        <v>0.04277035681170026</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2307127941.458278</v>
+        <v>2407829531.262228</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475233908646281</v>
+        <v>0.1675772534060035</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01921416859674352</v>
+        <v>0.01803353038911355</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>917128317.9506973</v>
+        <v>1295848381.215273</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1667813969581926</v>
+        <v>0.1238207537028169</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03273075360963209</v>
+        <v>0.04344744091379149</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3513388172.900224</v>
+        <v>2964811489.613831</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1482030694388782</v>
+        <v>0.1142682030672265</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02590437753545274</v>
+        <v>0.0270373745734359</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2383346417.030145</v>
+        <v>2415097243.997284</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1195321272542112</v>
+        <v>0.1237734547703392</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02517929509703478</v>
+        <v>0.02733736383455646</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1527041502.330352</v>
+        <v>2122338520.636757</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1323279996321544</v>
+        <v>0.1272347068481384</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04005263403538972</v>
+        <v>0.04028538961215162</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1893570571.024752</v>
+        <v>1534791592.275397</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1661823588033533</v>
+        <v>0.1470123994367672</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05999861195252072</v>
+        <v>0.03803507141087809</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1804493731.628292</v>
+        <v>2855574727.077954</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07863641738190946</v>
+        <v>0.1094459992528943</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04090395930868409</v>
+        <v>0.04183806732381158</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4800722033.898044</v>
+        <v>3813860118.327713</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1398161897983696</v>
+        <v>0.1063207279618192</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03871081183629951</v>
+        <v>0.0518378929310265</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>75</v>
+      </c>
+      <c r="J93" t="n">
+        <v>166</v>
+      </c>
+      <c r="K93" t="n">
+        <v>125.9701549965022</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2486326612.921474</v>
+        <v>2016923555.880726</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1606968731361991</v>
+        <v>0.1643183688202353</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04124695201505246</v>
+        <v>0.03596704076125412</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2047688302.545382</v>
+        <v>2313348498.638772</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1229398756051054</v>
+        <v>0.1050571701059193</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04003794968492783</v>
+        <v>0.04525142839258301</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1551902951.866535</v>
+        <v>2131970405.369619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1336907880688725</v>
+        <v>0.1189655364463125</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02917374126707935</v>
+        <v>0.02879015910276499</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3923991444.758493</v>
+        <v>5234655448.952328</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1535307384007634</v>
+        <v>0.149944564441706</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02136615404427926</v>
+        <v>0.02053296094419155</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>80</v>
+      </c>
+      <c r="J97" t="n">
+        <v>167</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3491443828.778003</v>
+        <v>2963983694.225306</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07974117540497572</v>
+        <v>0.0841021702579481</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02113817125231516</v>
+        <v>0.03131991995854684</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>40</v>
+      </c>
+      <c r="J98" t="n">
+        <v>166</v>
+      </c>
+      <c r="K98" t="n">
+        <v>73.59336628964905</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3064011416.462348</v>
+        <v>2263651053.824009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09598673474263485</v>
+        <v>0.1103415026057559</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02150311233642614</v>
+        <v>0.02537969248919687</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3424404341.659898</v>
+        <v>3237543317.158568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1529413249961464</v>
+        <v>0.1723355271230805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02257481730238576</v>
+        <v>0.02498244501487326</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>70</v>
+      </c>
+      <c r="J100" t="n">
+        <v>166</v>
+      </c>
+      <c r="K100" t="n">
+        <v>93.79801213833028</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2765208642.645695</v>
+        <v>3590144748.708253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1590949408183699</v>
+        <v>0.1781753294360668</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05694549011207276</v>
+        <v>0.03993476161197792</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
